--- a/docs/project.xlsx
+++ b/docs/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DavidOuellet-Poulin\Documents\GitHub\mio_demo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1A9C3FD-A024-41F0-837D-0F2B79B81DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FBBF2B-A8B2-49E9-8FDF-E2B4F037F661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44390" yWindow="2900" windowWidth="28800" windowHeight="15560" xr2:uid="{C24D8CA3-0EBA-40C5-88FD-B5D5D30C411B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Plane</t>
   </si>
@@ -150,6 +150,24 @@
   </si>
   <si>
     <t>Flow control for upstream block</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>clk</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>100Mhz</t>
+  </si>
+  <si>
+    <t>sync</t>
   </si>
 </sst>
 </file>
@@ -501,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54A0042-A62E-4426-B791-EF2E57AFEB61}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -737,6 +755,28 @@
         <v>34</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/project.xlsx
+++ b/docs/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DavidOuellet-Poulin\Documents\GitHub\mio_demo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1A9C3FD-A024-41F0-837D-0F2B79B81DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0644FBAE-7145-4F22-8801-4D2BCFA37D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44390" yWindow="2900" windowWidth="28800" windowHeight="15560" xr2:uid="{C24D8CA3-0EBA-40C5-88FD-B5D5D30C411B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Plane</t>
   </si>
@@ -150,6 +150,24 @@
   </si>
   <si>
     <t>Flow control for upstream block</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>clk</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>100Mhz</t>
+  </si>
+  <si>
+    <t>sync</t>
   </si>
 </sst>
 </file>
@@ -501,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54A0042-A62E-4426-B791-EF2E57AFEB61}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -737,6 +755,28 @@
         <v>34</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
